--- a/data/pca/factorExposure/factorExposure_2016-06-15.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-06-15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01023146206625323</v>
+        <v>0.01247354893897644</v>
       </c>
       <c r="C2">
-        <v>0.05310622421459271</v>
+        <v>0.04031957937849272</v>
       </c>
       <c r="D2">
-        <v>-0.04153116541181397</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.06110623830974084</v>
+      </c>
+      <c r="E2">
+        <v>-0.0808198895913337</v>
+      </c>
+      <c r="F2">
+        <v>0.06177688858824652</v>
+      </c>
+      <c r="G2">
+        <v>0.04370650085903997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.03868833010528541</v>
+        <v>0.02343477931617563</v>
       </c>
       <c r="C3">
-        <v>0.1120003429559157</v>
+        <v>0.07126475627424735</v>
       </c>
       <c r="D3">
-        <v>-0.09247851827755084</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.07783766627059416</v>
+      </c>
+      <c r="E3">
+        <v>-0.06540651247843442</v>
+      </c>
+      <c r="F3">
+        <v>-0.0246815230076458</v>
+      </c>
+      <c r="G3">
+        <v>-0.03533214055978778</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.05774240663330779</v>
+        <v>0.05573461143025524</v>
       </c>
       <c r="C4">
-        <v>0.06195263449655713</v>
+        <v>0.06491588854938379</v>
       </c>
       <c r="D4">
-        <v>-0.03374375180074985</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.05907242705790511</v>
+      </c>
+      <c r="E4">
+        <v>-0.08046671450069159</v>
+      </c>
+      <c r="F4">
+        <v>0.07332724507514851</v>
+      </c>
+      <c r="G4">
+        <v>-0.03562952202792748</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.03779278099381791</v>
+        <v>0.03435467742985367</v>
       </c>
       <c r="C6">
-        <v>0.03888350769007032</v>
+        <v>0.03017949204609886</v>
       </c>
       <c r="D6">
-        <v>-0.0306241136871451</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.06040625761163912</v>
+      </c>
+      <c r="E6">
+        <v>-0.08216167066914117</v>
+      </c>
+      <c r="F6">
+        <v>0.04823318322675521</v>
+      </c>
+      <c r="G6">
+        <v>-0.02152447085095193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.0204971362442195</v>
+        <v>0.01720403529963528</v>
       </c>
       <c r="C7">
-        <v>0.04557417056662926</v>
+        <v>0.0381948282680107</v>
       </c>
       <c r="D7">
-        <v>0.003313404459050117</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.03781727289405448</v>
+      </c>
+      <c r="E7">
+        <v>-0.05832158418990165</v>
+      </c>
+      <c r="F7">
+        <v>0.09304620841078613</v>
+      </c>
+      <c r="G7">
+        <v>-0.009820110942709064</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.004920588042118148</v>
+        <v>0.002758455465593974</v>
       </c>
       <c r="C8">
-        <v>0.03536305412460624</v>
+        <v>0.03170884007705717</v>
       </c>
       <c r="D8">
-        <v>-0.02489986776810181</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03312565627512763</v>
+      </c>
+      <c r="E8">
+        <v>-0.05447627734732994</v>
+      </c>
+      <c r="F8">
+        <v>0.03030962748953269</v>
+      </c>
+      <c r="G8">
+        <v>-0.006489461373168257</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.03207576508809307</v>
+        <v>0.03574370367609289</v>
       </c>
       <c r="C9">
-        <v>0.04816408844039703</v>
+        <v>0.0514848157698392</v>
       </c>
       <c r="D9">
-        <v>-0.01788163761275329</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.04284783486871606</v>
+      </c>
+      <c r="E9">
+        <v>-0.06873930336621158</v>
+      </c>
+      <c r="F9">
+        <v>0.07924871605218856</v>
+      </c>
+      <c r="G9">
+        <v>-0.02164667285875727</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.08411397883854996</v>
+        <v>0.1046156587479248</v>
       </c>
       <c r="C10">
-        <v>-0.1883280594129817</v>
+        <v>-0.1935771849631416</v>
       </c>
       <c r="D10">
-        <v>0.008993990410588648</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.009332605538013202</v>
+      </c>
+      <c r="E10">
+        <v>-0.04539393568562835</v>
+      </c>
+      <c r="F10">
+        <v>0.03227759448915757</v>
+      </c>
+      <c r="G10">
+        <v>-0.01241647558593069</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.03898626933449267</v>
+        <v>0.03501853140539967</v>
       </c>
       <c r="C11">
-        <v>0.05386270303472618</v>
+        <v>0.04919110626804786</v>
       </c>
       <c r="D11">
-        <v>-0.0175029810731686</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.03427112739343949</v>
+      </c>
+      <c r="E11">
+        <v>-0.02337823953504423</v>
+      </c>
+      <c r="F11">
+        <v>0.06318175873434925</v>
+      </c>
+      <c r="G11">
+        <v>-0.01721158404272696</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.04086397848980063</v>
+        <v>0.03713430556214036</v>
       </c>
       <c r="C12">
-        <v>0.04878730742078261</v>
+        <v>0.0464329439873362</v>
       </c>
       <c r="D12">
-        <v>-0.006559880269360089</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02790795226288581</v>
+      </c>
+      <c r="E12">
+        <v>-0.0316334108616709</v>
+      </c>
+      <c r="F12">
+        <v>0.06367319151979194</v>
+      </c>
+      <c r="G12">
+        <v>-0.01366766842368561</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.01070098172509687</v>
+        <v>0.009919973639622883</v>
       </c>
       <c r="C13">
-        <v>0.05176419869459348</v>
+        <v>0.04158635124666826</v>
       </c>
       <c r="D13">
-        <v>-0.01450813248718595</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.05028142729725718</v>
+      </c>
+      <c r="E13">
+        <v>-0.09333927385559763</v>
+      </c>
+      <c r="F13">
+        <v>0.08621379089506324</v>
+      </c>
+      <c r="G13">
+        <v>-0.0199097931351098</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.006490079000193018</v>
+        <v>0.003843841510193585</v>
       </c>
       <c r="C14">
-        <v>0.04125513553323012</v>
+        <v>0.0334510329855883</v>
       </c>
       <c r="D14">
-        <v>0.009622829754156478</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.0250267340149999</v>
+      </c>
+      <c r="E14">
+        <v>-0.04635921501692744</v>
+      </c>
+      <c r="F14">
+        <v>0.08755440376289142</v>
+      </c>
+      <c r="G14">
+        <v>0.003891627839562519</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.0002807404666482727</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.004963957708647334</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.007255062249702655</v>
+      </c>
+      <c r="E15">
+        <v>-0.003724662046925777</v>
+      </c>
+      <c r="F15">
+        <v>0.005809423345255112</v>
+      </c>
+      <c r="G15">
+        <v>-0.0002458386695492866</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.03581154005962069</v>
+        <v>0.03316597681863793</v>
       </c>
       <c r="C16">
-        <v>0.04883870576057668</v>
+        <v>0.04518376855614777</v>
       </c>
       <c r="D16">
-        <v>-0.01180097369198497</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02810882322930074</v>
+      </c>
+      <c r="E16">
+        <v>-0.0370967011343518</v>
+      </c>
+      <c r="F16">
+        <v>0.06354355187260674</v>
+      </c>
+      <c r="G16">
+        <v>-0.002482045300941165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01780000156275454</v>
+        <v>0.01416763835530436</v>
       </c>
       <c r="C19">
-        <v>0.06548111926418461</v>
+        <v>0.04765185450144133</v>
       </c>
       <c r="D19">
-        <v>-0.0832240602067837</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.08790112754114317</v>
+      </c>
+      <c r="E19">
+        <v>-0.1047940240015699</v>
+      </c>
+      <c r="F19">
+        <v>0.06115592379628013</v>
+      </c>
+      <c r="G19">
+        <v>0.02793240533467929</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01418727883520495</v>
+        <v>0.01187555504225434</v>
       </c>
       <c r="C20">
-        <v>0.04809998702597246</v>
+        <v>0.03905241339138137</v>
       </c>
       <c r="D20">
-        <v>-0.01251002339868801</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.035583514854986</v>
+      </c>
+      <c r="E20">
+        <v>-0.0742687329877309</v>
+      </c>
+      <c r="F20">
+        <v>0.06805543043587588</v>
+      </c>
+      <c r="G20">
+        <v>-0.006295848945992123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.008168876952331742</v>
+        <v>0.007817075094397503</v>
       </c>
       <c r="C21">
-        <v>0.05027238758802047</v>
+        <v>0.0424082248722806</v>
       </c>
       <c r="D21">
-        <v>-0.03709144316098058</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.06384507258814569</v>
+      </c>
+      <c r="E21">
+        <v>-0.1151719548794155</v>
+      </c>
+      <c r="F21">
+        <v>0.1071125277886186</v>
+      </c>
+      <c r="G21">
+        <v>-0.006175595728279162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>-0.0006693706303127181</v>
+        <v>0.002422772919966087</v>
       </c>
       <c r="C22">
-        <v>0.0004939403411813037</v>
+        <v>0.02503386414830524</v>
       </c>
       <c r="D22">
-        <v>-0.001483506069864721</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.04211031977564962</v>
+      </c>
+      <c r="E22">
+        <v>-0.03687245297212204</v>
+      </c>
+      <c r="F22">
+        <v>0.008676412902080065</v>
+      </c>
+      <c r="G22">
+        <v>-0.03722045142397434</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>-0.0006749607902075545</v>
+        <v>0.002494122807541202</v>
       </c>
       <c r="C23">
-        <v>0.0004938869135461627</v>
+        <v>0.02519115839990867</v>
       </c>
       <c r="D23">
-        <v>-0.001490706301545034</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.0417730939976512</v>
+      </c>
+      <c r="E23">
+        <v>-0.03714321783603593</v>
+      </c>
+      <c r="F23">
+        <v>0.008448507447977661</v>
+      </c>
+      <c r="G23">
+        <v>-0.03742247807708537</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.03242504615682245</v>
+        <v>0.03286488437599018</v>
       </c>
       <c r="C24">
-        <v>0.05083732895166269</v>
+        <v>0.05301866747583599</v>
       </c>
       <c r="D24">
-        <v>-0.0122389154276739</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.02834112626373596</v>
+      </c>
+      <c r="E24">
+        <v>-0.03850139254623368</v>
+      </c>
+      <c r="F24">
+        <v>0.06987462801497414</v>
+      </c>
+      <c r="G24">
+        <v>-0.009922637776951715</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.04577677640739565</v>
+        <v>0.04244542511086656</v>
       </c>
       <c r="C25">
-        <v>0.06328334978750098</v>
+        <v>0.0575210651591951</v>
       </c>
       <c r="D25">
-        <v>-0.004159780543705248</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.02722794317601668</v>
+      </c>
+      <c r="E25">
+        <v>-0.03003791071425021</v>
+      </c>
+      <c r="F25">
+        <v>0.07309520812260178</v>
+      </c>
+      <c r="G25">
+        <v>-0.02754080128688692</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.01461734805752151</v>
+        <v>0.01413977090560682</v>
       </c>
       <c r="C26">
-        <v>0.01873593209313836</v>
+        <v>0.01748285120902784</v>
       </c>
       <c r="D26">
-        <v>-0.0001396938415692141</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02386866663603653</v>
+      </c>
+      <c r="E26">
+        <v>-0.04771131958138799</v>
+      </c>
+      <c r="F26">
+        <v>0.06248608714689348</v>
+      </c>
+      <c r="G26">
+        <v>0.01375585956812293</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1009177818045529</v>
+        <v>0.1409187510450176</v>
       </c>
       <c r="C28">
-        <v>-0.2387440852765496</v>
+        <v>-0.246448392261196</v>
       </c>
       <c r="D28">
-        <v>0.01367837844805667</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.02683670243075087</v>
+      </c>
+      <c r="E28">
+        <v>-0.06070644315527926</v>
+      </c>
+      <c r="F28">
+        <v>0.05263297204965952</v>
+      </c>
+      <c r="G28">
+        <v>-0.02219523464574257</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.006628100219660759</v>
+        <v>0.005262913644866055</v>
       </c>
       <c r="C29">
-        <v>0.03343008968133194</v>
+        <v>0.02969223722344857</v>
       </c>
       <c r="D29">
-        <v>0.01384379593506017</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.0189416401536374</v>
+      </c>
+      <c r="E29">
+        <v>-0.04608500144781762</v>
+      </c>
+      <c r="F29">
+        <v>0.08192893455121983</v>
+      </c>
+      <c r="G29">
+        <v>-0.009819715248914288</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.04214297314390177</v>
+        <v>0.03852175580641065</v>
       </c>
       <c r="C30">
-        <v>0.05568231446970484</v>
+        <v>0.05782953234809792</v>
       </c>
       <c r="D30">
-        <v>-0.07172679967790037</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1007083997139478</v>
+      </c>
+      <c r="E30">
+        <v>-0.07000058247657077</v>
+      </c>
+      <c r="F30">
+        <v>0.07714455688487229</v>
+      </c>
+      <c r="G30">
+        <v>0.01363870584998829</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.05492912814713323</v>
+        <v>0.05532648311367536</v>
       </c>
       <c r="C31">
-        <v>0.0463878368158134</v>
+        <v>0.0616352086990289</v>
       </c>
       <c r="D31">
-        <v>0.0227393665746182</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.006860570218203086</v>
+      </c>
+      <c r="E31">
+        <v>-0.07017013855792742</v>
+      </c>
+      <c r="F31">
+        <v>0.06212873985114832</v>
+      </c>
+      <c r="G31">
+        <v>-0.04674808861290959</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.002535648359965144</v>
+        <v>0.004528590093558663</v>
       </c>
       <c r="C32">
-        <v>0.04071453219840426</v>
+        <v>0.03312509856522922</v>
       </c>
       <c r="D32">
-        <v>-0.04857614222711749</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.05630893152242923</v>
+      </c>
+      <c r="E32">
+        <v>-0.05408469234187315</v>
+      </c>
+      <c r="F32">
+        <v>0.0637292786548419</v>
+      </c>
+      <c r="G32">
+        <v>0.01250045414529001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.02538871706644527</v>
+        <v>0.02260308817181306</v>
       </c>
       <c r="C33">
-        <v>0.06170633683113049</v>
+        <v>0.05400655085535169</v>
       </c>
       <c r="D33">
-        <v>-0.05181276842715141</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.08005992669064785</v>
+      </c>
+      <c r="E33">
+        <v>-0.08695327737824558</v>
+      </c>
+      <c r="F33">
+        <v>0.1077772467313461</v>
+      </c>
+      <c r="G33">
+        <v>-0.02011104829691117</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.04379532462350689</v>
+        <v>0.0398813979632501</v>
       </c>
       <c r="C34">
-        <v>0.06739221638896532</v>
+        <v>0.06505922104191345</v>
       </c>
       <c r="D34">
-        <v>-0.01877865480309526</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03845011210470654</v>
+      </c>
+      <c r="E34">
+        <v>-0.01039906467166558</v>
+      </c>
+      <c r="F34">
+        <v>0.07786570545995593</v>
+      </c>
+      <c r="G34">
+        <v>-0.01335170325443368</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01416628458070325</v>
+        <v>0.01323796992913021</v>
       </c>
       <c r="C36">
-        <v>0.01667790657245821</v>
+        <v>0.01287876117679215</v>
       </c>
       <c r="D36">
-        <v>-0.0005195613370648177</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02644342450458439</v>
+      </c>
+      <c r="E36">
+        <v>-0.05634000382491988</v>
+      </c>
+      <c r="F36">
+        <v>0.06718505966561041</v>
+      </c>
+      <c r="G36">
+        <v>-0.009153126268232238</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.02791178065038383</v>
+        <v>0.02218698817035436</v>
       </c>
       <c r="C38">
-        <v>0.0295274249862011</v>
+        <v>0.02254038725118989</v>
       </c>
       <c r="D38">
-        <v>0.008636057104374621</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.02288286878214582</v>
+      </c>
+      <c r="E38">
+        <v>-0.04698618422395256</v>
+      </c>
+      <c r="F38">
+        <v>0.05339659801662881</v>
+      </c>
+      <c r="G38">
+        <v>-0.003102584565186703</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.04228132717952419</v>
+        <v>0.03776727592176485</v>
       </c>
       <c r="C39">
-        <v>0.06682918068972148</v>
+        <v>0.06455813838896438</v>
       </c>
       <c r="D39">
-        <v>-0.02183737405333488</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.05265752792741221</v>
+      </c>
+      <c r="E39">
+        <v>-0.04239757221175348</v>
+      </c>
+      <c r="F39">
+        <v>0.07947822591571407</v>
+      </c>
+      <c r="G39">
+        <v>0.01187718984258926</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01171330131563572</v>
+        <v>0.01242554766028462</v>
       </c>
       <c r="C40">
-        <v>0.05092233534292737</v>
+        <v>0.03700651351464913</v>
       </c>
       <c r="D40">
-        <v>-0.01653307875281647</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.033424272940022</v>
+      </c>
+      <c r="E40">
+        <v>-0.08168681012864934</v>
+      </c>
+      <c r="F40">
+        <v>0.06300562466837073</v>
+      </c>
+      <c r="G40">
+        <v>-0.03805214257959584</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.02114287654962351</v>
+        <v>0.01882492499848189</v>
       </c>
       <c r="C41">
-        <v>0.01283261501157723</v>
+        <v>0.01045121458174358</v>
       </c>
       <c r="D41">
-        <v>-0.002111135669307855</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01702987896728612</v>
+      </c>
+      <c r="E41">
+        <v>-0.05528377081000838</v>
+      </c>
+      <c r="F41">
+        <v>0.057431523025564</v>
+      </c>
+      <c r="G41">
+        <v>-0.002509315230814989</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.03748787771362303</v>
+        <v>0.0285152285175294</v>
       </c>
       <c r="C43">
-        <v>0.03417552045861517</v>
+        <v>0.02499723729897387</v>
       </c>
       <c r="D43">
-        <v>-0.02983422814979489</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.04425862713130468</v>
+      </c>
+      <c r="E43">
+        <v>-0.06953802328765207</v>
+      </c>
+      <c r="F43">
+        <v>0.06396881983970358</v>
+      </c>
+      <c r="G43">
+        <v>-0.02039291697805213</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.01043608077586238</v>
+        <v>0.01231388362878469</v>
       </c>
       <c r="C44">
-        <v>0.06663639504695269</v>
+        <v>0.04941250084057577</v>
       </c>
       <c r="D44">
-        <v>-0.01151295946981587</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.03792340231878091</v>
+      </c>
+      <c r="E44">
+        <v>-0.08547628551132799</v>
+      </c>
+      <c r="F44">
+        <v>0.06653142931645414</v>
+      </c>
+      <c r="G44">
+        <v>0.007403924492903956</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.006863976304956288</v>
+        <v>0.008114407751227029</v>
       </c>
       <c r="C46">
-        <v>0.03025585056580145</v>
+        <v>0.02970090722105068</v>
       </c>
       <c r="D46">
-        <v>0.0153375130912817</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01364258808759468</v>
+      </c>
+      <c r="E46">
+        <v>-0.05660679770927694</v>
+      </c>
+      <c r="F46">
+        <v>0.09523303201319321</v>
+      </c>
+      <c r="G46">
+        <v>-0.003180572047999384</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.08140742194906386</v>
+        <v>0.08654259960495586</v>
       </c>
       <c r="C47">
-        <v>0.07384477443130219</v>
+        <v>0.08303851403597808</v>
       </c>
       <c r="D47">
-        <v>0.0239367513282792</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01396432811910504</v>
+      </c>
+      <c r="E47">
+        <v>-0.07263149502661727</v>
+      </c>
+      <c r="F47">
+        <v>0.06749197459218663</v>
+      </c>
+      <c r="G47">
+        <v>-0.05155154165592352</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.01754751242380737</v>
+        <v>0.01556402813710583</v>
       </c>
       <c r="C48">
-        <v>0.01598824574445257</v>
+        <v>0.01700889555051171</v>
       </c>
       <c r="D48">
-        <v>0.01475139216150826</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01485654876045216</v>
+      </c>
+      <c r="E48">
+        <v>-0.06770855903839698</v>
+      </c>
+      <c r="F48">
+        <v>0.08384708042436401</v>
+      </c>
+      <c r="G48">
+        <v>-0.008703916951370492</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.07844680844562962</v>
+        <v>0.06970801774712754</v>
       </c>
       <c r="C50">
-        <v>0.08240648668923878</v>
+        <v>0.07617892714067054</v>
       </c>
       <c r="D50">
-        <v>0.02416901769400614</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.0008678688490158842</v>
+      </c>
+      <c r="E50">
+        <v>-0.07610810886832051</v>
+      </c>
+      <c r="F50">
+        <v>0.04764110551838498</v>
+      </c>
+      <c r="G50">
+        <v>-0.06898825375088739</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.01367083519101065</v>
+        <v>0.009643904076487351</v>
       </c>
       <c r="C51">
-        <v>0.05170888097514022</v>
+        <v>0.03277058089643682</v>
       </c>
       <c r="D51">
-        <v>-0.0287677464287432</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.04902754876138498</v>
+      </c>
+      <c r="E51">
+        <v>-0.04282128319078329</v>
+      </c>
+      <c r="F51">
+        <v>0.07077707649975529</v>
+      </c>
+      <c r="G51">
+        <v>0.01937670514222552</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.07912210913245443</v>
+        <v>0.09205113187070896</v>
       </c>
       <c r="C53">
-        <v>0.08066112401841899</v>
+        <v>0.08961062877430515</v>
       </c>
       <c r="D53">
-        <v>0.03942028263920369</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.04054498344358224</v>
+      </c>
+      <c r="E53">
+        <v>-0.07003812703954695</v>
+      </c>
+      <c r="F53">
+        <v>0.07653225872713958</v>
+      </c>
+      <c r="G53">
+        <v>-0.06443011610358201</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.03014240751327792</v>
+        <v>0.02710629437051063</v>
       </c>
       <c r="C54">
-        <v>0.03205236800246995</v>
+        <v>0.02908974604486365</v>
       </c>
       <c r="D54">
-        <v>-0.005401025936900109</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03109723183557578</v>
+      </c>
+      <c r="E54">
+        <v>-0.05420304649638588</v>
+      </c>
+      <c r="F54">
+        <v>0.09237349301925897</v>
+      </c>
+      <c r="G54">
+        <v>-0.01093548758540867</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.07310453245971422</v>
+        <v>0.08398208324251444</v>
       </c>
       <c r="C55">
-        <v>0.06168754367883025</v>
+        <v>0.07281428790185535</v>
       </c>
       <c r="D55">
-        <v>0.04822643166712268</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.04707083131297744</v>
+      </c>
+      <c r="E55">
+        <v>-0.05150326421412881</v>
+      </c>
+      <c r="F55">
+        <v>0.05299384818549647</v>
+      </c>
+      <c r="G55">
+        <v>-0.05337577540137143</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.142326430492129</v>
+        <v>0.1456501169452454</v>
       </c>
       <c r="C56">
-        <v>0.1009848192728442</v>
+        <v>0.1108739346655392</v>
       </c>
       <c r="D56">
-        <v>0.03739863641110602</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.04296386147750495</v>
+      </c>
+      <c r="E56">
+        <v>-0.05386169058546249</v>
+      </c>
+      <c r="F56">
+        <v>0.03753422641670758</v>
+      </c>
+      <c r="G56">
+        <v>-0.05917758768708489</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.002498612135428532</v>
+        <v>0.001902924207329877</v>
       </c>
       <c r="C57">
-        <v>-0.004239405678303916</v>
+        <v>-0.002469548056369037</v>
       </c>
       <c r="D57">
-        <v>-0.00481113203740377</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.003434673829390896</v>
+      </c>
+      <c r="E57">
+        <v>-0.001534998763534336</v>
+      </c>
+      <c r="F57">
+        <v>0.0002382094289497744</v>
+      </c>
+      <c r="G57">
+        <v>-0.001409211148368929</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.04030907749277689</v>
+        <v>0.02416965511953928</v>
       </c>
       <c r="C58">
-        <v>0.01938195978995781</v>
+        <v>0.02012972840608423</v>
       </c>
       <c r="D58">
-        <v>-0.6343422932823003</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.3881874171212676</v>
+      </c>
+      <c r="E58">
+        <v>-0.6319438050898433</v>
+      </c>
+      <c r="F58">
+        <v>-0.588000480300609</v>
+      </c>
+      <c r="G58">
+        <v>0.108669259549203</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1373256051370707</v>
+        <v>0.1472548221344651</v>
       </c>
       <c r="C59">
-        <v>-0.1945854557070006</v>
+        <v>-0.1849407715180175</v>
       </c>
       <c r="D59">
-        <v>-0.01630628849563213</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.02414778116290454</v>
+      </c>
+      <c r="E59">
+        <v>-0.0267766023840571</v>
+      </c>
+      <c r="F59">
+        <v>0.01901447182733149</v>
+      </c>
+      <c r="G59">
+        <v>0.03139038259751499</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.3081493503355885</v>
+        <v>0.2805023580908881</v>
       </c>
       <c r="C60">
-        <v>0.1057213020609477</v>
+        <v>0.1034046200923694</v>
       </c>
       <c r="D60">
-        <v>-0.1724706621044967</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.2464863379868497</v>
+      </c>
+      <c r="E60">
+        <v>0.2591359478675554</v>
+      </c>
+      <c r="F60">
+        <v>-0.0750401304364846</v>
+      </c>
+      <c r="G60">
+        <v>-0.04553441716734725</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.04011304634360829</v>
+        <v>0.03895936646246915</v>
       </c>
       <c r="C61">
-        <v>0.06424676958678796</v>
+        <v>0.06050653592508785</v>
       </c>
       <c r="D61">
-        <v>-0.01767637262487965</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04467061255037242</v>
+      </c>
+      <c r="E61">
+        <v>-0.04639777469497873</v>
+      </c>
+      <c r="F61">
+        <v>0.07061974363867075</v>
+      </c>
+      <c r="G61">
+        <v>-0.01298707076562312</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.01468506306222358</v>
+        <v>0.01425280496224086</v>
       </c>
       <c r="C63">
-        <v>0.03464489983445109</v>
+        <v>0.03204419435256343</v>
       </c>
       <c r="D63">
-        <v>0.009359532999791746</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02064220605472745</v>
+      </c>
+      <c r="E63">
+        <v>-0.05861955702212434</v>
+      </c>
+      <c r="F63">
+        <v>0.06295846503851926</v>
+      </c>
+      <c r="G63">
+        <v>-0.02852895416373943</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.0473782503436969</v>
+        <v>0.05495079020524606</v>
       </c>
       <c r="C64">
-        <v>0.0482095397520328</v>
+        <v>0.05736534476470515</v>
       </c>
       <c r="D64">
-        <v>-0.007141929481242508</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.01066577068743226</v>
+      </c>
+      <c r="E64">
+        <v>-0.04076770990129427</v>
+      </c>
+      <c r="F64">
+        <v>0.08211053094933814</v>
+      </c>
+      <c r="G64">
+        <v>-0.01279684488670871</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.08318986731201597</v>
+        <v>0.06777094770413328</v>
       </c>
       <c r="C65">
-        <v>0.03345020956955391</v>
+        <v>0.03104140658225355</v>
       </c>
       <c r="D65">
-        <v>-0.05112024515169469</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.08230170486822781</v>
+      </c>
+      <c r="E65">
+        <v>-0.04452856879127418</v>
+      </c>
+      <c r="F65">
+        <v>-0.001252777293991469</v>
+      </c>
+      <c r="G65">
+        <v>-0.0006355199476019147</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.05786622641870671</v>
+        <v>0.04918772544402795</v>
       </c>
       <c r="C66">
-        <v>0.09287427912087044</v>
+        <v>0.08375349244327564</v>
       </c>
       <c r="D66">
-        <v>-0.04374307954250969</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.07756835745712629</v>
+      </c>
+      <c r="E66">
+        <v>-0.04964274598544562</v>
+      </c>
+      <c r="F66">
+        <v>0.08183044229793518</v>
+      </c>
+      <c r="G66">
+        <v>-0.004642826363065603</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.04986830104868092</v>
+        <v>0.04413669349467033</v>
       </c>
       <c r="C67">
-        <v>0.03173582796349129</v>
+        <v>0.02792554803453874</v>
       </c>
       <c r="D67">
-        <v>0.01147356433046024</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.008904114490864952</v>
+      </c>
+      <c r="E67">
+        <v>-0.02542482268408018</v>
+      </c>
+      <c r="F67">
+        <v>0.04504069364595993</v>
+      </c>
+      <c r="G67">
+        <v>-0.01012853479398634</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1373253929758949</v>
+        <v>0.1566780365680691</v>
       </c>
       <c r="C68">
-        <v>-0.2773268184435257</v>
+        <v>-0.2434757802931523</v>
       </c>
       <c r="D68">
-        <v>0.01918348365323367</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.02116193854872131</v>
+      </c>
+      <c r="E68">
+        <v>-0.0417927538113217</v>
+      </c>
+      <c r="F68">
+        <v>0.01132737639237973</v>
+      </c>
+      <c r="G68">
+        <v>-0.009528489203398943</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.08823678703446482</v>
+        <v>0.08565141979960919</v>
       </c>
       <c r="C69">
-        <v>0.07274748726361546</v>
+        <v>0.09008853309602038</v>
       </c>
       <c r="D69">
-        <v>0.0328574514044687</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.004650898944903192</v>
+      </c>
+      <c r="E69">
+        <v>-0.05679388498938453</v>
+      </c>
+      <c r="F69">
+        <v>0.08635001798700927</v>
+      </c>
+      <c r="G69">
+        <v>-0.03072432551826386</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1242142419866996</v>
+        <v>0.1467909554248163</v>
       </c>
       <c r="C71">
-        <v>-0.2461298287844423</v>
+        <v>-0.2341083954523433</v>
       </c>
       <c r="D71">
-        <v>-0.01402318147181342</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.00387627238818775</v>
+      </c>
+      <c r="E71">
+        <v>-0.06688656585582133</v>
+      </c>
+      <c r="F71">
+        <v>0.04731536116439073</v>
+      </c>
+      <c r="G71">
+        <v>-0.03858338072771315</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.08956851963441315</v>
+        <v>0.09833346685265378</v>
       </c>
       <c r="C72">
-        <v>0.05965701331468064</v>
+        <v>0.05974449145348326</v>
       </c>
       <c r="D72">
-        <v>-0.01218615736188882</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.03371148673665964</v>
+      </c>
+      <c r="E72">
+        <v>-0.02609566927950989</v>
+      </c>
+      <c r="F72">
+        <v>0.06459981956168015</v>
+      </c>
+      <c r="G72">
+        <v>-0.03538053022296764</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.4035139948034134</v>
+        <v>0.343028985449721</v>
       </c>
       <c r="C73">
-        <v>0.05497324502409887</v>
+        <v>0.07069354551326397</v>
       </c>
       <c r="D73">
-        <v>-0.4004890178672855</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.4895392259464671</v>
+      </c>
+      <c r="E73">
+        <v>0.4673833428127188</v>
+      </c>
+      <c r="F73">
+        <v>-0.2159500009372068</v>
+      </c>
+      <c r="G73">
+        <v>-0.1055019551142964</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.1020320634563787</v>
+        <v>0.1077313282370484</v>
       </c>
       <c r="C74">
-        <v>0.09783600932093367</v>
+        <v>0.09799556292078439</v>
       </c>
       <c r="D74">
-        <v>0.02028987779690952</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.03081545586782158</v>
+      </c>
+      <c r="E74">
+        <v>-0.06852965699532586</v>
+      </c>
+      <c r="F74">
+        <v>0.03670355210923715</v>
+      </c>
+      <c r="G74">
+        <v>-0.07221712121635783</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.2499354141979516</v>
+        <v>0.2550255985885374</v>
       </c>
       <c r="C75">
-        <v>0.1110659622088532</v>
+        <v>0.1355868825490259</v>
       </c>
       <c r="D75">
-        <v>0.09024531120181178</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1256457776653328</v>
+      </c>
+      <c r="E75">
+        <v>-0.06555940282267399</v>
+      </c>
+      <c r="F75">
+        <v>0.01630845072848284</v>
+      </c>
+      <c r="G75">
+        <v>-0.07653418805867319</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.1085697177107506</v>
+        <v>0.1238491444208878</v>
       </c>
       <c r="C76">
-        <v>0.09081114559238967</v>
+        <v>0.09992394226592517</v>
       </c>
       <c r="D76">
-        <v>0.05164482294170886</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.06046601998877506</v>
+      </c>
+      <c r="E76">
+        <v>-0.07884533721759224</v>
+      </c>
+      <c r="F76">
+        <v>0.05989117525264205</v>
+      </c>
+      <c r="G76">
+        <v>-0.0582902659796834</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.07463716731539419</v>
+        <v>0.05949996424086177</v>
       </c>
       <c r="C77">
-        <v>0.0581030968805058</v>
+        <v>0.06975643768289633</v>
       </c>
       <c r="D77">
-        <v>-0.05231462625521512</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.06232837514250222</v>
+      </c>
+      <c r="E77">
+        <v>-0.09647143689912242</v>
+      </c>
+      <c r="F77">
+        <v>0.1088885647134597</v>
+      </c>
+      <c r="G77">
+        <v>0.1446663758707503</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.04560871984341904</v>
+        <v>0.04213333175504468</v>
       </c>
       <c r="C78">
-        <v>0.05196511767724483</v>
+        <v>0.05783028939916111</v>
       </c>
       <c r="D78">
-        <v>-0.02785479571374458</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.06310380012887569</v>
+      </c>
+      <c r="E78">
+        <v>-0.05317776441119614</v>
+      </c>
+      <c r="F78">
+        <v>0.08206963607988192</v>
+      </c>
+      <c r="G78">
+        <v>-0.008292642168445632</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.02774782826272445</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.04537650696732613</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.06057016449100718</v>
+      </c>
+      <c r="E79">
+        <v>-0.06673871285814224</v>
+      </c>
+      <c r="F79">
+        <v>0.02854484333849615</v>
+      </c>
+      <c r="G79">
+        <v>-0.07954963255489322</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.03877646950104358</v>
+        <v>0.03034745361872296</v>
       </c>
       <c r="C80">
-        <v>0.05086911131463689</v>
+        <v>0.0509330162922626</v>
       </c>
       <c r="D80">
-        <v>-0.02583748970818579</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.0388218585226553</v>
+      </c>
+      <c r="E80">
+        <v>-0.01465122013050581</v>
+      </c>
+      <c r="F80">
+        <v>0.03409137739718502</v>
+      </c>
+      <c r="G80">
+        <v>0.0444281325432158</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1381139787798281</v>
+        <v>0.1380429682727378</v>
       </c>
       <c r="C81">
-        <v>0.0820197659986641</v>
+        <v>0.09748329569204037</v>
       </c>
       <c r="D81">
-        <v>0.07746719972524652</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.1045649452843343</v>
+      </c>
+      <c r="E81">
+        <v>-0.08004967265033371</v>
+      </c>
+      <c r="F81">
+        <v>0.005739580600433321</v>
+      </c>
+      <c r="G81">
+        <v>-0.05299818644914456</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.1658683996597268</v>
+        <v>0.2055489353905264</v>
       </c>
       <c r="C82">
-        <v>0.0948905517304888</v>
+        <v>0.1576517772501121</v>
       </c>
       <c r="D82">
-        <v>0.1439907950720861</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2151652273917003</v>
+      </c>
+      <c r="E82">
+        <v>-0.008421642195670454</v>
+      </c>
+      <c r="F82">
+        <v>0.1053760299454838</v>
+      </c>
+      <c r="G82">
+        <v>-0.0549099828121312</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.03729835530769985</v>
+        <v>0.02598544443112969</v>
       </c>
       <c r="C83">
-        <v>0.03001831603232104</v>
+        <v>0.04256083334846771</v>
       </c>
       <c r="D83">
-        <v>-0.0348806800914218</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03244027142458655</v>
+      </c>
+      <c r="E83">
+        <v>-0.02330218293563424</v>
+      </c>
+      <c r="F83">
+        <v>0.041111623108531</v>
+      </c>
+      <c r="G83">
+        <v>0.0207719262397473</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.0001451779311373447</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.0007707350440994598</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.001158635620462425</v>
+      </c>
+      <c r="E84">
+        <v>-0.0006345792062355877</v>
+      </c>
+      <c r="F84">
+        <v>0.0006302702377625316</v>
+      </c>
+      <c r="G84">
+        <v>0.0003045320763955026</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.2160893586470538</v>
+        <v>0.2004615156994297</v>
       </c>
       <c r="C85">
-        <v>0.1078270035880756</v>
+        <v>0.1196165570495153</v>
       </c>
       <c r="D85">
-        <v>0.1179790195701202</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.0980201752855671</v>
+      </c>
+      <c r="E85">
+        <v>0.005162813274243339</v>
+      </c>
+      <c r="F85">
+        <v>-0.01175249151299238</v>
+      </c>
+      <c r="G85">
+        <v>-0.1353886734006318</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.006132893049689042</v>
+        <v>0.008713901259715235</v>
       </c>
       <c r="C86">
-        <v>0.03095227442472889</v>
+        <v>0.02188357847256507</v>
       </c>
       <c r="D86">
-        <v>-0.0330582061633648</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.05398835016263641</v>
+      </c>
+      <c r="E86">
+        <v>-0.06848242728466865</v>
+      </c>
+      <c r="F86">
+        <v>0.1232203100787057</v>
+      </c>
+      <c r="G86">
+        <v>0.008234456899601209</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.02262903351006346</v>
+        <v>0.02164172885298484</v>
       </c>
       <c r="C87">
-        <v>0.006805970805868164</v>
+        <v>0.01512942715533439</v>
       </c>
       <c r="D87">
-        <v>-0.08327176488889532</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.08414781154758146</v>
+      </c>
+      <c r="E87">
+        <v>-0.1198325058907568</v>
+      </c>
+      <c r="F87">
+        <v>0.05975652817379844</v>
+      </c>
+      <c r="G87">
+        <v>0.04428499925222188</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.1034870367754398</v>
+        <v>0.09124779619918361</v>
       </c>
       <c r="C88">
-        <v>0.07494895651955598</v>
+        <v>0.06415066219266187</v>
       </c>
       <c r="D88">
-        <v>0.02268751263078017</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.005535239577312561</v>
+      </c>
+      <c r="E88">
+        <v>-0.0469043842548998</v>
+      </c>
+      <c r="F88">
+        <v>0.06718073886635266</v>
+      </c>
+      <c r="G88">
+        <v>0.02178532525947868</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1976458363003884</v>
+        <v>0.2273534620200465</v>
       </c>
       <c r="C89">
-        <v>-0.3726898156699439</v>
+        <v>-0.3774341244459608</v>
       </c>
       <c r="D89">
-        <v>0.03253909839618222</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.02329579987221654</v>
+      </c>
+      <c r="E89">
+        <v>-0.06707301687964189</v>
+      </c>
+      <c r="F89">
+        <v>0.07389587836254166</v>
+      </c>
+      <c r="G89">
+        <v>0.06341863775572876</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1865796086699324</v>
+        <v>0.2051882906147383</v>
       </c>
       <c r="C90">
-        <v>-0.328952732694408</v>
+        <v>-0.3084624965524435</v>
       </c>
       <c r="D90">
-        <v>0.03472947334448886</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.02473962756624896</v>
+      </c>
+      <c r="E90">
+        <v>-0.07050930360620586</v>
+      </c>
+      <c r="F90">
+        <v>0.03458897389891403</v>
+      </c>
+      <c r="G90">
+        <v>0.01561945139041496</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1857423891440576</v>
+        <v>0.18369611985248</v>
       </c>
       <c r="C91">
-        <v>0.1327038868079896</v>
+        <v>0.1470588922373811</v>
       </c>
       <c r="D91">
-        <v>0.0874252681769532</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.104182681799319</v>
+      </c>
+      <c r="E91">
+        <v>-0.06140553103137873</v>
+      </c>
+      <c r="F91">
+        <v>0.03160312674818744</v>
+      </c>
+      <c r="G91">
+        <v>-0.06050512983044417</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1699010668839932</v>
+        <v>0.1851478642545347</v>
       </c>
       <c r="C92">
-        <v>-0.277160010365907</v>
+        <v>-0.2829372424481975</v>
       </c>
       <c r="D92">
-        <v>0.01568493439745077</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.01934461221384538</v>
+      </c>
+      <c r="E92">
+        <v>-0.07509706929158722</v>
+      </c>
+      <c r="F92">
+        <v>0.08189509595329572</v>
+      </c>
+      <c r="G92">
+        <v>0.006754041397945978</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.2104306566269905</v>
+        <v>0.2282233300979264</v>
       </c>
       <c r="C93">
-        <v>-0.3301967483039535</v>
+        <v>-0.314103569573773</v>
       </c>
       <c r="D93">
-        <v>0.03307643255126032</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.0177719253021388</v>
+      </c>
+      <c r="E93">
+        <v>-0.04538381479503781</v>
+      </c>
+      <c r="F93">
+        <v>0.0336776000388655</v>
+      </c>
+      <c r="G93">
+        <v>-0.02909855332824572</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.3432350089527562</v>
+        <v>0.3447837680787916</v>
       </c>
       <c r="C94">
-        <v>0.1755211259454961</v>
+        <v>0.2018828885139051</v>
       </c>
       <c r="D94">
-        <v>0.4854577351610696</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.500556498370149</v>
+      </c>
+      <c r="E94">
+        <v>0.01551756493507884</v>
+      </c>
+      <c r="F94">
+        <v>-0.445074678484836</v>
+      </c>
+      <c r="G94">
+        <v>0.3466019881424768</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.108915372640776</v>
+        <v>0.08177998871792279</v>
       </c>
       <c r="C95">
-        <v>0.0742767391913973</v>
+        <v>0.06393229857267053</v>
       </c>
       <c r="D95">
-        <v>-0.140666690021556</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.169937610965558</v>
+      </c>
+      <c r="E95">
+        <v>0.1032558799459186</v>
+      </c>
+      <c r="F95">
+        <v>0.2653494959035064</v>
+      </c>
+      <c r="G95">
+        <v>0.850843293652378</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1929405789024682</v>
+        <v>0.1861522722846558</v>
       </c>
       <c r="C98">
-        <v>0.01969834011395008</v>
+        <v>0.0419578767041851</v>
       </c>
       <c r="D98">
-        <v>-0.1520594303687494</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1975235392473154</v>
+      </c>
+      <c r="E98">
+        <v>0.1414473009429266</v>
+      </c>
+      <c r="F98">
+        <v>-0.03026917176549179</v>
+      </c>
+      <c r="G98">
+        <v>-0.09572142240658886</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.006588387835537339</v>
+        <v>0.005322513185969383</v>
       </c>
       <c r="C101">
-        <v>0.0334385157461496</v>
+        <v>0.02942451401544215</v>
       </c>
       <c r="D101">
-        <v>0.01454294746253582</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01833070759820066</v>
+      </c>
+      <c r="E101">
+        <v>-0.04666922434972264</v>
+      </c>
+      <c r="F101">
+        <v>0.08158737352503349</v>
+      </c>
+      <c r="G101">
+        <v>-0.008703596521188312</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.1206411368253419</v>
+        <v>0.123393803062377</v>
       </c>
       <c r="C102">
-        <v>0.07598009705490971</v>
+        <v>0.1031312120473768</v>
       </c>
       <c r="D102">
-        <v>0.02420576181805103</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.04008494698351012</v>
+      </c>
+      <c r="E102">
+        <v>0.0008075349879830102</v>
+      </c>
+      <c r="F102">
+        <v>0.04722421611003399</v>
+      </c>
+      <c r="G102">
+        <v>-0.01917279895773514</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
